--- a/medicine/Psychotrope/Académie_du_vin_de_France/Académie_du_vin_de_France.xlsx
+++ b/medicine/Psychotrope/Académie_du_vin_de_France/Académie_du_vin_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_du_vin_de_France</t>
+          <t>Académie_du_vin_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Académie du vin de France est fondée, en 1933, par le baron Pierre Le Roy de Boiseaumarié et Raymond Baudoin, le directeur-fondateur de La Revue du vin de France. Ses fondateurs lui donnèrent pour objet « la défense des vins de France et l'éducation à leur connaissance, la lutte contre les fraudes, les tromperies et même l'ignorance, pouvant nuire à la renommée de ces vins ». 
 Son siège est implanté à la Société de Géographie (184, boulevard Saint-Germain 75006 PARIS). www.académie-du-vin-de-France.org   
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_du_vin_de_France</t>
+          <t>Académie_du_vin_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Historique
-Ses présidents successifs ont été : 
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses présidents successifs ont été : 
 Baron Le Roy de Boiseaumarié, Président du Syndicat général des Vignerons des Côtes-du-Rhône (1933-1954)
 Marquis de Lur-Saluces, Château d'Yquem, Sauternes (1954-1966)
 Vincent Bourrel, Procureur général près la cour des Comptes (1966-1981)
@@ -530,10 +547,7 @@
 Pierre Trimbach, Domaine Trimbach à Ribeauvillé (2022- )
 Ses vice-présidents depuis 2022 sont Olivier Bernard (Domaine de Chevalier, Pessac-Léognan) et Dominique Lafon (Domaine Comtes Lafon à Meursault). Son Secrétaire perpétuel est Jean-Laurent Vacheron (Domaine Vacheron à Sancerre). Son trésorier est Philippe Bourguignon (Sommelier). 
 Cette académie compte 40 membres titulaires se réunit à l'occasion de paulées, de dîners, de déplacements et de voyages dans les vignobles et tient son assemblée générale annuelle fin novembre. Elle organise des colloques visant à promouvoir la consommation raisonnable des vins de qualité. Le premier a eu lieu en janvier 2012 et portait sur le thème de L'amour du vin[note 1]. Le deuxième a porté sur Vin et santé en 2014[note 2]. Le troisième a eu lieu en 2016 et a porté sur le thème Les accords mets-vins[note 1]. Le quatrième s'est tenu en 2022 et a porté sur Viticulture et changement climatique (sous la conduite d'Erik Orsenna et Jean-Robert Pitte) (Supplément au Bulletin de Liaison des membres de la Société de Géographie, 2023).
-Membres d'honneur
-Erik Orsenna, de l'Académie française
-Jean-Robert Pitte, Ancien Secrétaire perpétuel de l'Académie des sciences morales et politiques, Président de l'Académie (2010-2016)
-Bernard Pivot de l'Académie Goncourt</t>
+</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_du_vin_de_France</t>
+          <t>Académie_du_vin_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,12 +572,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Membres d'honneur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Erik Orsenna, de l'Académie française
+Jean-Robert Pitte, Ancien Secrétaire perpétuel de l'Académie des sciences morales et politiques, Président de l'Académie (2010-2016)
+Bernard Pivot de l'Académie Goncourt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Académie_du_vin_de_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acad%C3%A9mie_du_vin_de_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Actions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, après qu'Agnès Buzyn a comparé le vin à un alcool comme un autre, l'association et ses membres ont réagi en publiant dans la presse pour en dénoncer l'absurdité[1]. De même en janvier 2023, lorsqu'une campagne officielle a été organisée pour fustiger l'acte de trinquer "à votre santé!"[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, après qu'Agnès Buzyn a comparé le vin à un alcool comme un autre, l'association et ses membres ont réagi en publiant dans la presse pour en dénoncer l'absurdité. De même en janvier 2023, lorsqu'une campagne officielle a été organisée pour fustiger l'acte de trinquer "à votre santé!"
 </t>
         </is>
       </c>
